--- a/data/income_statement/2digits/size/01_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/01_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>01-Crop and animal production, hunting and related service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>01-Crop and animal production, hunting and related service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1542182.90214</v>
+        <v>1574296.71826</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1787812.15547</v>
+        <v>1892785.51626</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2144122.93702</v>
+        <v>2233865.69195</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2453313.1676</v>
+        <v>2625587.75816</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3798151.01075</v>
+        <v>3995556.0359</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4271443.45028</v>
+        <v>4717405.65353</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4694842.19073</v>
+        <v>5162630.677840001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5104462.50454</v>
+        <v>5659798.43717</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5531146.27715</v>
+        <v>6188075.93128</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>11254810.61335</v>
+        <v>11624644.87123</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>14280043.7762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13664877.98072</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>15295776.785</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1474040.77653</v>
+        <v>1501351.9203</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1716029.82006</v>
+        <v>1798393.86457</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2061157.83372</v>
+        <v>2127966.48808</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2353794.93174</v>
+        <v>2512228.78364</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3599968.78412</v>
+        <v>3795264.45683</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4066634.062879999</v>
+        <v>4487726.85283</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4478381.583469999</v>
+        <v>4912217.79069</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4897973.18996</v>
+        <v>5418746.771020001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5249603.22331</v>
+        <v>5861622.34892</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>10515740.16293</v>
+        <v>10871078.01351</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13434260.14599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12751862.62122</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14361707.978</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>47088.68855</v>
+        <v>51571.11416</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>51378.14798</v>
+        <v>68021.73617</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>51638.79488</v>
+        <v>61314.16752</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>54532.52870000001</v>
+        <v>63182.53401</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>117790.38653</v>
+        <v>116983.37372</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>125248.78077</v>
+        <v>129254.38581</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>135233.92903</v>
+        <v>149552.23271</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>110175.52226</v>
+        <v>134103.4534</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>178689.98068</v>
+        <v>206675.88472</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>546400.47252</v>
+        <v>551549.51584</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>608094.5130599999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>653988.5978400001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>646141.9840000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>21053.43706</v>
+        <v>21373.6838</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>20404.18743</v>
+        <v>26369.91552</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>31326.30842</v>
+        <v>44585.03635</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>44985.70716000001</v>
+        <v>50176.44051000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>80391.84010000002</v>
+        <v>83308.20535</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>79560.60662999999</v>
+        <v>100424.41489</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>81226.67822999999</v>
+        <v>100860.65444</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>96313.79231999999</v>
+        <v>106948.21275</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>102853.07316</v>
+        <v>119777.69764</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>192669.9779</v>
+        <v>202017.34188</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>237689.11715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>259026.76166</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>287926.823</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7049.12795</v>
+        <v>6913.60803</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>7072.03309</v>
+        <v>7721.59092</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6905.14652</v>
+        <v>9084.722740000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>8376.83173</v>
+        <v>10060.77018</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>16270.62408</v>
+        <v>14811.53481</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>10914.44037</v>
+        <v>13948.46366</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>14084.17748</v>
+        <v>17435.3931</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>17817.82874</v>
+        <v>29035.74464</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>18277.64218</v>
+        <v>27484.53902</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>56177.63554</v>
+        <v>63862.51166</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1204898.01004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>94498.81849000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>653397.4669999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5158.25787</v>
+        <v>4875.46057</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4900.783820000001</v>
+        <v>5316.15212</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4824.04997</v>
+        <v>5994.79646</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5326.86132</v>
+        <v>6609.40085</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10829.54424</v>
+        <v>9013.067540000002</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7988.813549999999</v>
+        <v>9273.406269999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>10871.1534</v>
+        <v>12438.37032</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>13385.15948</v>
+        <v>18748.11912</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>15146.04591</v>
+        <v>17333.89961</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>37850.96344</v>
+        <v>43683.79153</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1182562.19268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>68120.3508</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>618479.526</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1242.60057</v>
+        <v>1375.27526</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1560.31957</v>
+        <v>1668.67412</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1518.0863</v>
+        <v>2449.33139</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1428.41437</v>
+        <v>2306.58116</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>4006.43233</v>
+        <v>4129.603440000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1191.76146</v>
+        <v>1997.924</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1682.77402</v>
+        <v>2615.27874</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3109.20663</v>
+        <v>6308.256530000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1623.29451</v>
+        <v>3858.081999999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>9656.935150000001</v>
+        <v>11930.99629</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>8023.090120000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>12414.27969</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>10945.15</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>648.26951</v>
+        <v>662.8721999999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>610.9296999999999</v>
+        <v>736.7646799999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>563.0102500000002</v>
+        <v>640.59489</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1621.55604</v>
+        <v>1144.78817</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1434.64751</v>
+        <v>1668.86383</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1733.86536</v>
+        <v>2677.13339</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1530.25006</v>
+        <v>2381.74404</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1323.46263</v>
+        <v>3979.36899</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1508.30176</v>
+        <v>6292.55741</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>8669.736949999999</v>
+        <v>8247.723840000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>14312.72724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>13964.188</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>23972.791</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1535133.77419</v>
+        <v>1567383.11023</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1780740.12238</v>
+        <v>1885063.92534</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2137217.7905</v>
+        <v>2224780.96921</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2444936.335870001</v>
+        <v>2615526.987980001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3781880.38667</v>
+        <v>3980744.50109</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4260529.00991</v>
+        <v>4703457.18987</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4680758.01325</v>
+        <v>5145195.28474</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5086644.6758</v>
+        <v>5630762.692529999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5512868.63497</v>
+        <v>6160591.39226</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11198632.97781</v>
+        <v>11560782.35957</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>13075145.76616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13570379.16223</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>14642379.318</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1377046.28143</v>
+        <v>1420696.62681</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1589466.54742</v>
+        <v>1690017.38039</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1915923.80593</v>
+        <v>1997041.5783</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2188333.81907</v>
+        <v>2366654.80812</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3384503.14042</v>
+        <v>3597932.529880001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3800668.62265</v>
+        <v>4226402.91942</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4173676.0032</v>
+        <v>4606714.66897</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4589945.32912</v>
+        <v>5090527.60192</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4906662.074150001</v>
+        <v>5496762.512200001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10105912.51818</v>
+        <v>10449678.43291</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>11954062.25002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12420803.43021</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>13228138.532</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>746365.7318799999</v>
+        <v>801067.32536</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>850232.9837399999</v>
+        <v>936649.0953400001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>994727.97036</v>
+        <v>1059127.7489</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1189528.35552</v>
+        <v>1348221.93366</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1862431.08239</v>
+        <v>2079413.60831</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1828408.12427</v>
+        <v>2223022.89746</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2093708.42888</v>
+        <v>2447046.45346</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2066893.26869</v>
+        <v>2511293.43524</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2187842.109350001</v>
+        <v>2690642.96906</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>5819662.83602</v>
+        <v>6114708.26369</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>6826746.75161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>7095532.709190001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7565422.721</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>559507.4423700001</v>
+        <v>546803.94856</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>665375.23308</v>
+        <v>670515.1188400001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>847568.9506100001</v>
+        <v>859006.63258</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>886539.5947</v>
+        <v>898606.70367</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1358116.89515</v>
+        <v>1368273.98655</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1751139.51652</v>
+        <v>1792067.42689</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1850782.74343</v>
+        <v>1922445.60772</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2285823.09489</v>
+        <v>2366448.11924</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2362850.2123</v>
+        <v>2474475.44095</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3860507.625889999</v>
+        <v>3949363.7215</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4624975.310449999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4880851.678389999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5143503.692</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>54850.01298000001</v>
+        <v>53829.32913000001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>56747.1776</v>
+        <v>61642.24539</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>65006.62334</v>
+        <v>66926.16445000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>99068.26949000001</v>
+        <v>97480.34788</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>138653.3141</v>
+        <v>118397.38543</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>192764.46456</v>
+        <v>172079.59141</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>200527.84427</v>
+        <v>184551.78256</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>200426.01592</v>
+        <v>175217.06228</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>310435.51706</v>
+        <v>284925.44051</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>359814.1898399999</v>
+        <v>320334.50731</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>412800.9782599999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>358981.52855</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>449023.831</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>16323.0942</v>
+        <v>18996.02376</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>17111.153</v>
+        <v>21210.92082</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>8620.261619999999</v>
+        <v>11981.03237</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>13197.59936</v>
+        <v>22345.82291</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>25301.84878</v>
+        <v>31847.54959</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>28356.5173</v>
+        <v>39233.00366</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>28656.98662</v>
+        <v>52670.82522999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>36802.94962000001</v>
+        <v>37568.98516</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>45534.23544</v>
+        <v>46718.66168</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>65927.86642999999</v>
+        <v>65271.94041</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>89539.20969999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>85437.51408000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>70188.288</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>158087.49276</v>
+        <v>146686.48342</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>191273.57496</v>
+        <v>195046.54495</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>221293.98457</v>
+        <v>227739.39091</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>256602.5168</v>
+        <v>248872.17986</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>397377.24625</v>
+        <v>382811.97121</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>459860.38726</v>
+        <v>477054.27045</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>507082.0100499999</v>
+        <v>538480.61577</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>496699.34668</v>
+        <v>540235.0906099998</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>606206.56082</v>
+        <v>663828.8800600001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1092720.45963</v>
+        <v>1111103.92666</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1121083.51614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1149575.73202</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1414240.786</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>131515.65637</v>
+        <v>126166.78841</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>161907.8533</v>
+        <v>166723.93111</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>207132.4012</v>
+        <v>212978.86673</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>254828.55919</v>
+        <v>253198.05007</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>351052.99145</v>
+        <v>335967.07764</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>385475.9741200001</v>
+        <v>376147.67388</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>440113.6490100001</v>
+        <v>426808.19599</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>470019.59581</v>
+        <v>475770.71662</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>534947.7228400001</v>
+        <v>545223.7574999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>817720.3504799999</v>
+        <v>761400.6260800001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>971853.2255800001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>946989.2775599998</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>986223.704</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>432.14597</v>
+        <v>1348.1662</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>535.7665999999999</v>
+        <v>160.46514</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>755.9558300000001</v>
+        <v>694.9884599999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>244.8386</v>
+        <v>208.83047</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1045.4298</v>
+        <v>546.12023</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1695.3319</v>
+        <v>1239.51936</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1243.29376</v>
+        <v>3207.20342</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2073.44679</v>
+        <v>3313.23317</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3455.91734</v>
+        <v>5438.969970000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>5431.30746</v>
+        <v>9158.61752</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>7178.83867</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>11171.80019</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>18083.743</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>36912.50541</v>
+        <v>37156.05167</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>46487.54786999999</v>
+        <v>51313.99815</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>47473.92011</v>
+        <v>50222.69036000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>58313.54891</v>
+        <v>61294.74513</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>78424.14251999999</v>
+        <v>77886.1925</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>81242.10255000001</v>
+        <v>86287.84011</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>95224.05058</v>
+        <v>101594.44209</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>93242.88429999999</v>
+        <v>109738.82623</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>120602.00741</v>
+        <v>135086.92991</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>215263.64854</v>
+        <v>230702.19604</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>259437.9899</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>276636.34681</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>262698.822</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>94171.00498999999</v>
+        <v>87662.57053999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>114884.53883</v>
+        <v>115249.46782</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>158902.52526</v>
+        <v>162061.18791</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>196270.17168</v>
+        <v>191694.47447</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>271583.4191300001</v>
+        <v>257534.7649100001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>302538.53967</v>
+        <v>288620.31441</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>343646.30467</v>
+        <v>322006.55048</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>374703.26472</v>
+        <v>362718.6572200001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>410889.7980900001</v>
+        <v>404697.85762</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>597025.39448</v>
+        <v>521539.81252</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>705236.39701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>659181.1305600001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>705441.139</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>26571.83639</v>
+        <v>20519.69501</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>29365.72166</v>
+        <v>28322.61384</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>14161.58337</v>
+        <v>14760.52418</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1773.95761</v>
+        <v>-4325.870210000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>46324.2548</v>
+        <v>46844.89357</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>74384.41314</v>
+        <v>100906.59657</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>66968.36104</v>
+        <v>111672.41978</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>26679.75087</v>
+        <v>64464.37399000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>71258.83798000001</v>
+        <v>118605.12256</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>275000.10915</v>
+        <v>349703.30058</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>149230.29056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>202586.45446</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>428017.082</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>15100.23186</v>
+        <v>19320.40696</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>14014.3052</v>
+        <v>22840.09046</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>19307.62888</v>
+        <v>29480.85327</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>20880.40409</v>
+        <v>45424.52136</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>45302.32114999999</v>
+        <v>58223.0626</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>41341.07882</v>
+        <v>66512.92494</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>61249.38920999999</v>
+        <v>81362.36896000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>60981.81249</v>
+        <v>96304.46082000001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>75361.50709</v>
+        <v>120767.73744</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>290423.69115</v>
+        <v>367796.44241</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>207865.34263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>322317.33662</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>361394.818</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>144.72271</v>
+        <v>739.35227</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>265.84713</v>
+        <v>373.77323</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>251.17655</v>
+        <v>226.659</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>420.89424</v>
+        <v>5605.5999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>562.21063</v>
+        <v>382.03063</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>456.72496</v>
+        <v>1411.06218</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4608.47733</v>
+        <v>2520.40155</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1998.12005</v>
+        <v>6772.35181</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>479.7393000000001</v>
+        <v>4345.950150000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>3070.62159</v>
+        <v>14670.56609</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>891.19159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>83339.99094</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>10717.749</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,19 +1833,19 @@
         <v>5.530139999999999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>2</v>
+        <v>4870.59427</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>19.39995</v>
+        <v>89.92388000000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>8.960319999999999</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>2.95784</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1461.4884</v>
+        <v>5751.78687</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
@@ -1838,232 +1854,262 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>9891.014880000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>699.0148799999999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1706.67375</v>
+        <v>1170.12308</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1721.96082</v>
+        <v>1541.83574</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2114.09396</v>
+        <v>3328.07188</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2892.52155</v>
+        <v>5039.005800000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>5082.37419</v>
+        <v>8099.492020000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>5281.13729</v>
+        <v>9952.786270000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>6638.43353</v>
+        <v>8068.498930000002</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7665.82973</v>
+        <v>10578.10002</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>9960.509090000001</v>
+        <v>11903.38708</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>31794.65603</v>
+        <v>26792.94633</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>32662.5212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>34588.99017</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>28382.651</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>98.91573999999999</v>
+        <v>98.91282999999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>185.14579</v>
+        <v>255.26547</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>253.38548</v>
+        <v>374.86565</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>343.72829</v>
+        <v>395.68546</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>694.04552</v>
+        <v>745.5693899999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>856.63549</v>
+        <v>860.25377</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>894.10451</v>
+        <v>991.4592000000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2458.16224</v>
+        <v>2482.21188</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2543.13875</v>
+        <v>2537.75669</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3501.46239</v>
+        <v>3758.84722</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3902.39649</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>4362.031950000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3767.569</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>66.02522</v>
+        <v>63.49246</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>54.89691000000001</v>
+        <v>53.82587</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>77.14152</v>
+        <v>427.10372</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1357.03932</v>
+        <v>297.90203</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1895.93532</v>
+        <v>1191.49731</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>661.70186</v>
+        <v>702.66029</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1156.21546</v>
+        <v>721.93541</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>128.55434</v>
+        <v>3622.79193</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>195.13087</v>
+        <v>4708.38831</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2142.92495</v>
+        <v>1754.35077</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>964.1804899999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>608.3216199999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>302.001</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>498.87916</v>
+        <v>170.57195</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>50.79193</v>
+        <v>53.22573999999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>156.45319</v>
+        <v>220.00506</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>339.71198</v>
+        <v>459.1802</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1282.40505</v>
+        <v>558.7124600000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>349.80486</v>
+        <v>230.02414</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>996.55389</v>
+        <v>1696.41472</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>772.0567600000001</v>
+        <v>275.32788</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>844.1166600000001</v>
+        <v>580.20449</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2314.97841</v>
+        <v>1725.52956</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1898.06785</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5749.38409</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>31907.778</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>5479.019060000001</v>
+        <v>8002.1735</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>4648.64851</v>
+        <v>8760.066480000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3952.67209</v>
+        <v>13712.45856</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2363.72975</v>
+        <v>7633.848940000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>10207.10963</v>
+        <v>12521.49958</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>7946.190299999999</v>
+        <v>16880.54421</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>17759.45216</v>
+        <v>30152.03466</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>15291.88884</v>
+        <v>24888.2193</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>20276.09269</v>
+        <v>51296.03985</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>167919.30436</v>
+        <v>237378.85421</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>68076.63347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>106368.0952</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>173536.916</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1.02674</v>
+        <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0.7277400000000001</v>
+        <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>5.701</v>
+        <v>5.26065</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0</v>
+        <v>21.76327</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>1.2274</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>81.91874</v>
+        <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>65.03456</v>
+        <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>0</v>
@@ -2074,32 +2120,37 @@
       <c r="M33" s="48" t="n">
         <v>0.00024</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>364.87</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>12.88605</v>
+        <v>10.4455</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>8.60604</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>38.0883</v>
+        <v>37.22072</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>13.74118</v>
+        <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>80.52837</v>
+        <v>65.69542</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>26.30007</v>
+        <v>704.50177</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>51.47854</v>
+        <v>105.12512</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>36.53019</v>
@@ -2108,910 +2159,1028 @@
         <v>303.38206</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>8.257</v>
+        <v>8.257070000000001</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>46.95327</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>185.915</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7092.08343</v>
+        <v>9065.335369999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7077.680329999999</v>
+        <v>11793.49189</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>12459.08765</v>
+        <v>11148.93854</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>13141.33678</v>
+        <v>21117.44411</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>25478.31249000001</v>
+        <v>34546.87864</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>25761.35659</v>
+        <v>35760.90459000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>29059.79721</v>
+        <v>37103.54153</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>31104.14737999999</v>
+        <v>41897.14094</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>40759.39767</v>
+        <v>45092.62880999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>79659.35714000001</v>
+        <v>81694.96187999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>89532.38314999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>86554.55425999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>112229.369</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>13265.4883</v>
+        <v>15789.33169</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>9290.03715</v>
+        <v>15383.43346</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>14332.88568</v>
+        <v>25689.12771</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>8147.40465</v>
+        <v>18994.88754</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>27205.41511</v>
+        <v>42783.71375</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>19019.03879</v>
+        <v>32889.92321</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>36815.99938</v>
+        <v>60419.66428</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>32670.08824</v>
+        <v>69349.1228</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>36464.98591</v>
+        <v>86988.14726999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>202180.01307</v>
+        <v>370294.43648</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>115555.84295</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>176796.24017</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>189197.416</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>151.95401</v>
+        <v>176.0569</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>374.14946</v>
+        <v>518.5225</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>466.37344</v>
+        <v>621.2724199999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>331.48375</v>
+        <v>536.90499</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1161.58065</v>
+        <v>1231.08129</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1193.61339</v>
+        <v>1732.42721</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1535.5768</v>
+        <v>2083.34205</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1178.7509</v>
+        <v>1503.01376</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>924.9541399999999</v>
+        <v>1321.35163</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2215.21913</v>
+        <v>2129.69123</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3100.66801</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3063.60095</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3989.197</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2705.93577</v>
+        <v>2696.9309</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>70.57035999999999</v>
+        <v>366.17091</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1179.81493</v>
+        <v>1518.04123</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1166.30092</v>
+        <v>2190.92828</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3698.77142</v>
+        <v>4367.23996</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2089.5379</v>
+        <v>2694.96827</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4425.43346</v>
+        <v>6375.42669</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4910.327830000001</v>
+        <v>5426.95005</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5085.18717</v>
+        <v>5230.24725</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>13439.34514</v>
+        <v>13404.51979</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>6703.1731</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>8572.666569999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>14489.742</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>164.83414</v>
+        <v>29.41368</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>51.97224000000001</v>
+        <v>47.09299</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>46.72544</v>
+        <v>46.15663</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>270.89196</v>
+        <v>56.81158</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>480.97137</v>
+        <v>402.87099</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>73.06429</v>
+        <v>60.89364</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>90.65674</v>
+        <v>1113.80141</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>812.38152</v>
+        <v>50.42641</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>125.1868</v>
+        <v>626.8917700000001</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>882.06141</v>
+        <v>358.77642</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>318.69743</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>3608.43427</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2141.518</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>6321.81071</v>
+        <v>9137.92035</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3843.92376</v>
+        <v>8655.880370000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>6220.44442</v>
+        <v>15428.27835</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1969.83358</v>
+        <v>8128.60687</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>13440.83717</v>
+        <v>22028.16609</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>7496.377739999999</v>
+        <v>18225.44875</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>17050.68456</v>
+        <v>33901.34275</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>14311.50518</v>
+        <v>46061.01849</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>20017.61105</v>
+        <v>65372.61425</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>167097.53762</v>
+        <v>299214.62215</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>70410.6413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>125308.16115</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>144462.168</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>23.43518</v>
+        <v>35.5886</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>16.98337</v>
+        <v>11.46055</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>244.80229</v>
+        <v>239.46213</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>139.15374</v>
+        <v>142.39743</v>
       </c>
       <c r="G41" s="48" t="n">
+        <v>160.7073</v>
+      </c>
+      <c r="H41" s="48" t="n">
+        <v>14.08181</v>
+      </c>
+      <c r="I41" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="H41" s="48" t="n">
-        <v>0.6215499999999999</v>
-      </c>
-      <c r="I41" s="48" t="n">
-        <v>48.53328</v>
-      </c>
       <c r="J41" s="48" t="n">
-        <v>140.01713</v>
+        <v>94.70474</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>50.61426</v>
+        <v>0.6</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>793.06296</v>
+        <v>619.2842099999999</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>5.80705</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>227.224</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>29.03925</v>
+        <v>16.32738</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>10.9177</v>
+        <v>91.26826</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>6.08455</v>
+        <v>318.41617</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>397.27326</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>27.80801</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>1.08169</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>18.06487</v>
+        <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>0</v>
+        <v>29.88143</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3897.51849</v>
+        <v>3713.42126</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>4903.39871</v>
+        <v>5767.97876</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6163.807459999999</v>
+        <v>7744.64869</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4263.656150000001</v>
+        <v>7620.822219999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>8025.981239999999</v>
+        <v>14593.64812</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>8138.015909999999</v>
+        <v>10134.29552</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>13664.03285</v>
+        <v>16945.75138</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>11299.04081</v>
+        <v>16213.00935</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>10261.43249</v>
+        <v>14436.44237</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>17752.78681</v>
+        <v>54537.66125</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>35016.85606000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>36237.57018000002</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>23887.567</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>20838.81492</v>
+        <v>23209.17069</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>22649.57438</v>
+        <v>26747.88148</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>24369.03717</v>
+        <v>31532.31435</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>36128.15257</v>
+        <v>49488.06514000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>61654.02211999999</v>
+        <v>83448.05993999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>72211.15092</v>
+        <v>113300.34373</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>88350.87426000001</v>
+        <v>119416.16831</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>98744.49741</v>
+        <v>134189.80848</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>110116.50886</v>
+        <v>150135.78041</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>328069.16596</v>
+        <v>401486.61637</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>352958.36218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>392979.7577899999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>353901.343</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>19892.04277</v>
+        <v>22270.23724</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>20883.61849</v>
+        <v>24576.20692</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>22193.14277</v>
+        <v>28350.68287</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>32705.24552</v>
+        <v>41745.0915</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>56014.85381</v>
+        <v>66241.56797</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>67713.43627999999</v>
+        <v>96365.32456000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>82229.10026000001</v>
+        <v>109376.75788</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>93261.93197000002</v>
+        <v>123722.67976</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>103338.54716</v>
+        <v>132286.29085</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>279545.96459</v>
+        <v>299026.15066</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>315803.14139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>335260.99842</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>294787.213</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>946.77215</v>
+        <v>938.93345</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1765.95589</v>
+        <v>2171.674559999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2175.8944</v>
+        <v>3181.63148</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3422.90705</v>
+        <v>7742.973639999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5639.168309999999</v>
+        <v>17206.49197</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4497.714639999999</v>
+        <v>16935.01917</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>6121.774</v>
+        <v>10039.41043</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5482.56544</v>
+        <v>10467.12872</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>6777.9617</v>
+        <v>17849.48956</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>48523.20137</v>
+        <v>102460.46571</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>37155.22079</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>57718.75936999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>59114.13</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>7567.76503</v>
+        <v>841.5995899999989</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>11440.41533</v>
+        <v>9031.389359999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-5232.7106</v>
+        <v>-12980.06461</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-21621.19552</v>
+        <v>-27384.30153</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2767.138720000001</v>
+        <v>-21163.81751999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>24495.30225</v>
+        <v>21229.25457</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3050.876609999999</v>
+        <v>13198.95615</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-43753.02229</v>
+        <v>-42770.09647</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>38.85030000000051</v>
+        <v>2248.932320000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>35174.62127</v>
+        <v>-54281.30986</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-111418.57194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-44872.20687999998</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>246313.141</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>13254.86535</v>
+        <v>12858.98927</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>20453.62334</v>
+        <v>24580.04024</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>29087.59015</v>
+        <v>29217.13804</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>35979.52933999999</v>
+        <v>34203.70657</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>40020.86044999999</v>
+        <v>48300.33893</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>41804.24077999999</v>
+        <v>64018.24769</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>63287.84893000001</v>
+        <v>61236.37067</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>64111.53634000001</v>
+        <v>58760.91669</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>65582.91624999999</v>
+        <v>76929.51824999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>115502.84983</v>
+        <v>129831.22127</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>141254.62074</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>130130.91961</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>208210.247</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>205.55405</v>
+        <v>234.82194</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>152.66562</v>
+        <v>132.13728</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>302.31887</v>
+        <v>193.396</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>568.84326</v>
+        <v>236.98634</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>223.09111</v>
+        <v>631.0701100000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>510.05867</v>
+        <v>427.82318</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>916.0841000000001</v>
+        <v>304.92569</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>240.34924</v>
+        <v>337.82642</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>742.7707</v>
+        <v>796.8195400000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>926.7809100000001</v>
+        <v>1007.94843</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1150.22824</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>893.9421599999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>252.106</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>13049.3113</v>
+        <v>12624.16733</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>20300.95772</v>
+        <v>24447.90296</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>28785.27128</v>
+        <v>29023.74204</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>35410.68608</v>
+        <v>33966.72023000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>39797.76934000001</v>
+        <v>47669.26882</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>41294.18211</v>
+        <v>63590.42451</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>62371.76483</v>
+        <v>60931.44498000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>63871.1871</v>
+        <v>58423.09026999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>64840.14554999999</v>
+        <v>76132.69871000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>114576.06892</v>
+        <v>128823.27284</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>140104.3925</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>129236.97745</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>207958.141</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>17278.47314</v>
+        <v>17299.62384</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>13711.69748</v>
+        <v>17832.44108</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>38326.69677</v>
+        <v>40796.84402</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>22874.27349</v>
+        <v>30098.36542999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>31455.02503</v>
+        <v>43086.64607</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>42734.69228</v>
+        <v>72289.54284000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>42767.56057</v>
+        <v>39117.54773000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>82797.65660000002</v>
+        <v>93539.98811000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>56627.89381</v>
+        <v>64655.41189000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>152602.20392</v>
+        <v>171347.43017</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>103202.83122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>95904.06091</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>119305.343</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1129.53713</v>
+        <v>3304.88772</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1596.90246</v>
+        <v>2764.01549</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1098.50773</v>
+        <v>1486.3085</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1918.47439</v>
+        <v>6108.82138</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2807.53728</v>
+        <v>3066.38684</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2519.56934</v>
+        <v>2824.80459</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4122.61521</v>
+        <v>4217.80224</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>4547.87493</v>
+        <v>3742.49727</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>5375.711740000001</v>
+        <v>5192.608810000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>4262.637320000001</v>
+        <v>7987.669579999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>7724.59723</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4381.59913</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>21909.759</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>490.5865600000001</v>
+        <v>480.7079899999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>498.4862400000001</v>
+        <v>436.68673</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>225.96836</v>
+        <v>241.76164</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1171.73391</v>
+        <v>1331.74311</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1621.5331</v>
+        <v>1406.60722</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2623.97658</v>
+        <v>5116.9182</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1296.31413</v>
+        <v>899.40954</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1198.35869</v>
+        <v>1478.06784</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1637.95269</v>
+        <v>2363.76498</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3467.00622</v>
+        <v>3256.906809999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4768.22694</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4999.10142</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2072.382</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>15658.34945</v>
+        <v>13514.02813</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>11616.30878</v>
+        <v>14631.73886</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>37002.22068</v>
+        <v>39068.77387999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>19784.06519</v>
+        <v>22657.80094</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>27025.95465</v>
+        <v>38613.65201</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>37591.14636</v>
+        <v>64347.82004999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>37348.63123</v>
+        <v>34000.33595</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>77051.42297999999</v>
+        <v>88319.423</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>49614.22938</v>
+        <v>57099.0381</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>144872.56038</v>
+        <v>160102.85378</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>90710.00705</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>86523.36036000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>95323.202</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>3544.15724</v>
+        <v>-3599.03498</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>18182.34119</v>
+        <v>15778.98852</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-14471.81722</v>
+        <v>-24559.77059</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-8515.939669999998</v>
+        <v>-23278.96039</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>11332.97414</v>
+        <v>-15950.12466</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>23564.85075</v>
+        <v>12957.95942</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>23571.16497</v>
+        <v>35317.77909</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-62439.14254999999</v>
+        <v>-77549.16789</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>8993.872740000001</v>
+        <v>14523.03868</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1924.73281999999</v>
+        <v>-95797.51876000002</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-73366.78242</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-10645.34818000002</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>335218.045</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6100.982069999999</v>
+        <v>6139.02033</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6960.07485</v>
+        <v>6978.587739999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>9089.018389999999</v>
+        <v>9249.219060000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>8598.88235</v>
+        <v>8407.239730000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>14796.15798</v>
+        <v>14940.14074</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>18581.34681</v>
+        <v>18224.18391</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>21914.99631</v>
+        <v>23759.73627</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>19162.59043</v>
+        <v>20413.13669</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>19758.34587</v>
+        <v>23398.56325</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>45924.96085</v>
+        <v>42669.60431</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>45560.33841</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>47698.45608</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>64784.354</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-2556.82483</v>
+        <v>-9738.055309999998</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>11222.26634</v>
+        <v>8800.40078</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-23560.83561</v>
+        <v>-33808.98965</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-17114.82202</v>
+        <v>-31686.20012</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-3463.18384</v>
+        <v>-30890.2654</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>4983.50394</v>
+        <v>-5266.224490000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1656.168660000001</v>
+        <v>11558.04282</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-81601.73298</v>
+        <v>-97962.30458</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-10764.47313</v>
+        <v>-8875.52457</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-47849.69367000002</v>
+        <v>-138467.12307</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-118927.12083</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-58343.80426</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>270433.691</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>813</v>
+        <v>581</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1041</v>
+        <v>693</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1280</v>
+        <v>838</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1455</v>
+        <v>985</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1843</v>
+        <v>1157</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2161</v>
+        <v>1305</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2361</v>
+        <v>1390</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2561</v>
+        <v>1410</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2759</v>
+        <v>1520</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1902</v>
+        <v>1242</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1335</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>